--- a/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0895</v>
+        <v>0.185</v>
       </c>
       <c r="E2">
-        <v>0.483</v>
+        <v>0.234</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,100 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.02508504565708724</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02135745476037988</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>27.3</v>
+        <v>893.8</v>
       </c>
       <c r="L2">
-        <v>0.2217709179528838</v>
+        <v>0.5204681767891457</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>560.51</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1371144108221825</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.6271089729245917</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>510.9</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.1249785953668143</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.5716043857686284</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>49.60999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0.08850867959536848</v>
       </c>
       <c r="U2">
-        <v>410.1</v>
+        <v>6149.4</v>
       </c>
       <c r="V2">
-        <v>4.31230283911672</v>
+        <v>1.504293157856112</v>
       </c>
       <c r="W2">
-        <v>0.09342915811088297</v>
+        <v>0.2197253433208489</v>
       </c>
       <c r="X2">
-        <v>0.2306928073173586</v>
+        <v>0.08477942022756023</v>
       </c>
       <c r="Y2">
-        <v>-0.1372636492064756</v>
+        <v>0.1349459230932887</v>
       </c>
       <c r="Z2">
-        <v>0.2237457067605326</v>
+        <v>0.4441626991270379</v>
       </c>
       <c r="AA2">
-        <v>0.004778638809967297</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08301763197644871</v>
+        <v>0.06660264414975592</v>
       </c>
       <c r="AC2">
-        <v>-0.0782389931664814</v>
+        <v>-0.06660264414975592</v>
       </c>
       <c r="AD2">
-        <v>726.5</v>
+        <v>4148.9</v>
       </c>
       <c r="AE2">
-        <v>3.510154398062808</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>730.0101543980628</v>
+        <v>4148.9</v>
       </c>
       <c r="AG2">
-        <v>319.9101543980628</v>
+        <v>-2000.5</v>
       </c>
       <c r="AH2">
-        <v>0.8847426619426618</v>
+        <v>0.5037028943278943</v>
       </c>
       <c r="AI2">
-        <v>0.7023311743772814</v>
+        <v>0.5060004390565163</v>
       </c>
       <c r="AJ2">
-        <v>0.7708489804594431</v>
+        <v>-0.9583692631982372</v>
       </c>
       <c r="AK2">
-        <v>0.5083505361582127</v>
+        <v>-0.9758536585365853</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>191.688654353562</v>
-      </c>
-      <c r="AP2">
-        <v>84.40901171452843</v>
       </c>
     </row>
     <row r="3">
@@ -707,121 +704,359 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Joint Stock Company Halyk Savings Bank of Kazakhstan (LSE:HSBK)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>0.201</v>
+      </c>
+      <c r="E3">
+        <v>0.234</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>757.5</v>
+      </c>
+      <c r="L3">
+        <v>0.5483567395395975</v>
+      </c>
+      <c r="M3">
+        <v>509.4</v>
+      </c>
+      <c r="N3">
+        <v>0.1494849898758694</v>
+      </c>
+      <c r="O3">
+        <v>0.6724752475247524</v>
+      </c>
+      <c r="P3">
+        <v>461.7</v>
+      </c>
+      <c r="Q3">
+        <v>0.1354872788097544</v>
+      </c>
+      <c r="R3">
+        <v>0.6095049504950495</v>
+      </c>
+      <c r="S3">
+        <v>47.69999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.09363957597173143</v>
+      </c>
+      <c r="U3">
+        <v>4945.7</v>
+      </c>
+      <c r="V3">
+        <v>1.451330809636999</v>
+      </c>
+      <c r="W3">
+        <v>0.2395408405274642</v>
+      </c>
+      <c r="X3">
+        <v>0.06209217875287636</v>
+      </c>
+      <c r="Y3">
+        <v>0.1774486617745878</v>
+      </c>
+      <c r="Z3">
+        <v>0.654521333301746</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0.05478503337207604</v>
+      </c>
+      <c r="AC3">
+        <v>-0.05478503337207604</v>
+      </c>
+      <c r="AD3">
+        <v>2587.7</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>2587.7</v>
+      </c>
+      <c r="AG3">
+        <v>-2358</v>
+      </c>
+      <c r="AH3">
+        <v>0.4316142375821463</v>
+      </c>
+      <c r="AI3">
+        <v>0.4501365526118948</v>
+      </c>
+      <c r="AJ3">
+        <v>-2.246356101743356</v>
+      </c>
+      <c r="AK3">
+        <v>-2.936488169364882</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ForteBank Joint Stock Company (KAS:ASBN)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.185</v>
+      </c>
+      <c r="E4">
+        <v>-0.243</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>123.2</v>
+      </c>
+      <c r="L4">
+        <v>0.5317220543806647</v>
+      </c>
+      <c r="M4">
+        <v>51.11</v>
+      </c>
+      <c r="N4">
+        <v>0.08639283299526707</v>
+      </c>
+      <c r="O4">
+        <v>0.4148538961038961</v>
+      </c>
+      <c r="P4">
+        <v>49.2</v>
+      </c>
+      <c r="Q4">
+        <v>0.08316430020283976</v>
+      </c>
+      <c r="R4">
+        <v>0.3993506493506493</v>
+      </c>
+      <c r="S4">
+        <v>1.909999999999997</v>
+      </c>
+      <c r="T4">
+        <v>0.03737037761690465</v>
+      </c>
+      <c r="U4">
+        <v>629</v>
+      </c>
+      <c r="V4">
+        <v>1.063218390804598</v>
+      </c>
+      <c r="W4">
+        <v>0.2197253433208489</v>
+      </c>
+      <c r="X4">
+        <v>0.08477942022756023</v>
+      </c>
+      <c r="Y4">
+        <v>0.1349459230932887</v>
+      </c>
+      <c r="Z4">
+        <v>0.2050442477876106</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.06660264414975592</v>
+      </c>
+      <c r="AC4">
+        <v>-0.06660264414975592</v>
+      </c>
+      <c r="AD4">
+        <v>960.1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>960.1</v>
+      </c>
+      <c r="AG4">
+        <v>331.1</v>
+      </c>
+      <c r="AH4">
+        <v>0.618740735967004</v>
+      </c>
+      <c r="AI4">
+        <v>0.6199793361746094</v>
+      </c>
+      <c r="AJ4">
+        <v>0.3588381922618403</v>
+      </c>
+      <c r="AK4">
+        <v>0.3600478468899522</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Joint Stock Company Bank CenterCredit (KAS:CCBN)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0895</v>
-      </c>
-      <c r="E3">
-        <v>0.483</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.02508504565708724</v>
-      </c>
-      <c r="J3">
-        <v>0.02135745476037988</v>
-      </c>
-      <c r="K3">
-        <v>27.3</v>
-      </c>
-      <c r="L3">
-        <v>0.2217709179528838</v>
-      </c>
-      <c r="M3">
+      <c r="D5">
+        <v>0.091</v>
+      </c>
+      <c r="E5">
+        <v>1.45</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>13.1</v>
+      </c>
+      <c r="L5">
+        <v>0.1257197696737044</v>
+      </c>
+      <c r="M5">
         <v>-0</v>
       </c>
-      <c r="N3">
+      <c r="N5">
         <v>-0</v>
       </c>
-      <c r="O3">
+      <c r="O5">
         <v>-0</v>
       </c>
-      <c r="P3">
+      <c r="P5">
         <v>-0</v>
       </c>
-      <c r="Q3">
+      <c r="Q5">
         <v>-0</v>
       </c>
-      <c r="R3">
+      <c r="R5">
         <v>-0</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>410.1</v>
-      </c>
-      <c r="V3">
-        <v>4.31230283911672</v>
-      </c>
-      <c r="W3">
-        <v>0.09342915811088297</v>
-      </c>
-      <c r="X3">
-        <v>0.2306928073173586</v>
-      </c>
-      <c r="Y3">
-        <v>-0.1372636492064756</v>
-      </c>
-      <c r="Z3">
-        <v>0.2237457067605326</v>
-      </c>
-      <c r="AA3">
-        <v>0.004778638809967297</v>
-      </c>
-      <c r="AB3">
-        <v>0.08301763197644871</v>
-      </c>
-      <c r="AC3">
-        <v>-0.0782389931664814</v>
-      </c>
-      <c r="AD3">
-        <v>726.5</v>
-      </c>
-      <c r="AE3">
-        <v>3.510154398062808</v>
-      </c>
-      <c r="AF3">
-        <v>730.0101543980628</v>
-      </c>
-      <c r="AG3">
-        <v>319.9101543980628</v>
-      </c>
-      <c r="AH3">
-        <v>0.8847426619426618</v>
-      </c>
-      <c r="AI3">
-        <v>0.7023311743772814</v>
-      </c>
-      <c r="AJ3">
-        <v>0.7708489804594431</v>
-      </c>
-      <c r="AK3">
-        <v>0.5083505361582127</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>191.688654353562</v>
-      </c>
-      <c r="AP3">
-        <v>84.40901171452843</v>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>574.7</v>
+      </c>
+      <c r="V5">
+        <v>6.48645598194131</v>
+      </c>
+      <c r="W5">
+        <v>0.04235370190753314</v>
+      </c>
+      <c r="X5">
+        <v>0.2203885934186463</v>
+      </c>
+      <c r="Y5">
+        <v>-0.1780348915111132</v>
+      </c>
+      <c r="Z5">
+        <v>0.1664999536612413</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.08224434324894245</v>
+      </c>
+      <c r="AC5">
+        <v>-0.08224434324894245</v>
+      </c>
+      <c r="AD5">
+        <v>601.1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>601.1</v>
+      </c>
+      <c r="AG5">
+        <v>26.39999999999998</v>
+      </c>
+      <c r="AH5">
+        <v>0.8715383500072496</v>
+      </c>
+      <c r="AI5">
+        <v>0.6663341093005211</v>
+      </c>
+      <c r="AJ5">
+        <v>0.2295652173913042</v>
+      </c>
+      <c r="AK5">
+        <v>0.08063530849114227</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
